--- a/data/proveedor/algabo/listos/tiendaNube/algabo.xlsx
+++ b/data/proveedor/algabo/listos/tiendaNube/algabo.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="57" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -455,6 +458,4310 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>greenwood-aco-perro-gato-500</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>514</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sally-alcohol-gel-2d-holder-30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>352</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-suave-brisa-dp-250</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-suave-brisa-dp-500</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>algabo-enjuague-bucal-500</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>algabo-enj-bucal-salcohol-500</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>vais-banio-ep-900</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>algabo-talco-soft-rosa-180</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>desodorante-en-polvo-clasico-200g</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>polvo-desodorante-para-pies-repuesto-200-g</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-manos-y-unias-90</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>algabo-discos-desmaq-80</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>algabo-pompones-de-algodon-50</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>colonia-inglesa-750ml</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>655</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>sally-alcohol-gel-perf-75</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-talco-120</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-fecula-doypack-200-g</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>algabo-talco-soft-ep-200</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>algabo-talco-clasico-120</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-fecula-talquera-200-g</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-tela-suave-brisa-250</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>468</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-tela-calida-prim-500</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>468</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-tela-dulces-mimo-500</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>468</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-miel-almendra-400</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>537</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>644</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-avena-karite-400</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>537</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>644</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-aloe-manz-400</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>537</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>644</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-toallas-humedas-con-tapa-100-unidades</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>734</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>881</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>sally-unicornio-colonia-125-ml</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>720</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>864</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ultra-zombies-colonia-125-ml</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>720</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>864</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>desodorante-en-polvo-clasico-180g</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>desodorante-en-polvo-suave-180g</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-talco-180</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>algabo-agua-micelar-200</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-after-shave-120</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>535</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>642</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>algabo-agua-micelar-dosif-120</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>vais-antigrasa-ep-900</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-crema-p-afeitar-150</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>746</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>kids-zero-locion-100</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>talco-perfumado-bolsita-floral-200g</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>spiderman-jabon-liquido-300</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>avengers-jab-liq-surtido-300</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>hello-kitty-jabon-liquido-300</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>star-wars-jabon-liquido-300</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>zombies-jabon-liq-surtido-300</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liquido-mundial-300</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-aguacate-y-argan-930</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-coco-y-leche-930</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-coco-y-leche-930</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-aguacate-y-argan-930</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-manz-y-magnolia-930</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-manz-y-magnolia-930</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>algabo-banio-natural-pomo-200</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>algabo-barro-vegetal-pomo-200</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-jabon-flow-pack-80-g</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>vais-jab-liq-baja-esp-ep-800</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>329</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>avengers-spiderman-saniti-holder-30</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>minions-colonia-con-estuche-125-ml</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>frozen-colonia-elsa-125-ml</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>avengers-colonia-hulk-125-ml</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>hello-kitty-colonia-alegria-125-ml</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>hello-kitty-colonia-dulzura-125-ml</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>avengers-colonia-iron-man-125-ml</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>star-wars-colonia-baby-yoda-125-ml</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>avengers-colonia-capitan-america-125</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>avengers-colonia-spiderman-125-ml</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>vais-antigrasa-gatillo-500</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>vais-banio-gatillo-500</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>algabo-enjuague-bucal-250</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>algabo-enj-bucal-salcohol-250</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ultra-zombies-colonia-125-ml-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>sally-unicornio-set-shampoo-200-ml-colonia-125-ml</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>algabo-hisopos-tubo-125</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>algabo-hisopos-tubo-125-impo</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>caja-x20-talco-perfumado-bolsita-floral-400g</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-c-keratina-100</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-humectante-100</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-fortalecedor-100</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>algabo-esp-antib-manzmag-250</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>422</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>polvo-de-fecula-talquera-250g</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>493</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-475</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-fuerte-475</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-475</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-aceite-para-bebe-200-ml</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>set-regalo-crema-shower-gel</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-tela-dulces-mimo-250</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-tela-calida-prim-250</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>talco-desodorante-en-polvo-antibacterial-200g</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>baby-set-colonia-125-sh-200</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>972</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-pomo-150</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-pomo-150</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-fuerte-pomo-150</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-c-dosif-120</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>479</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-colonia-dulces-mimos-125-ml</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>479</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-express-75</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-espuma-afeitar-415</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>514</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>avengers-set-colonia-125-ml-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1526</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>frozen-set-colonia-125-ml-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1526</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>hello-kitty-set-colonia-125-ml-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1526</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>minions-set-colonia-125-ml-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1526</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-aloe-manz-200</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-avena-karite-200</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-miel-almendra-200</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitizante-gel-250</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-oleo-calcareo-doypack-500-ml</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>588</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Algabo-hisopos-tubo-200</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>talco-perfumado-floral-250g</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>algabo-hisopos-zipper-125</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>talco-perfumado-talquera-violets-250g</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>algabo-hisopos-tubo-100</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>kids-jabon-liquido-dp-300</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-pote-350</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-pote-350</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-fuerte-pote-350</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-antibac-ep-900</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>607</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>728</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>jabon-liquido-antibacterial-300ml</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-extrasuave-755-ml</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-manzanilla-755-ml</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-manzanilla-200-ml</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>430</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-extrasuave-200-ml</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>430</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-flo-rain-dp-300</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-flower-dp-300</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-500</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-500</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-cremoso-dp-300</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-efecto-firme-500</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-coconut-dp-300</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-f-bosque-dp-300</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-citrus-dp-300</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-greentea-dp-300</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>vais-repelente-crema-plus-200</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>frozen-sanit-gel-box-75</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>spiderman-sanitizante-box-75</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>algabo-foot-mujer-100</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>algabo-foot-ep-200</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-extrasuave-444-ml</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-acondicionador-cabellos-claros-444-ml</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-shampoo-manzanilla-444-ml</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>Baby-Acondicionador-Cabellos-Suaves-444-ml</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>avengers-spiderman-shampoo-200-ml</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>458</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-fortalecedor-50</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-humectante-50</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-ckeratina-50</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-pomo-200</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-pomo-200</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitiz-gel-pocket-60</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-fuerte-pomo-200</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>ultra-zombies-alcohol-gel-pocket-60-ml</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>sally-alcohol-en-gel-pocket-60</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Vais-repelente-en-cr-pomo-100</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>352</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>vais-deterg-lavavajilla-ep-800</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>algabo-banio-natural-argan-350</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>556</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>algabo-barro-vegetal-pote-350</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>556</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanit-spray-superf-500</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>453</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>544</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiavidrios-gatillo-500</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-toallas-humedas-80-unidades</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>sally-unicornio-colonia-50-ml</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sanitiz-dp-300</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>vais-repelente-kids-spray-200</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiavidrios-ep-900</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitizante-gel-ep-1000</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>vais-repelente-spray-200</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>spiderman-autito-sh-3d-450</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>zombie-sh-y-shower-gel-450</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-espuma-afeitar-200</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>454</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-toallas-humedas-20-unidades</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-oleo-calcareo-500-ml</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>740</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-caja-de-hisopos-de-algodon-55-unidades</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Baby-Hisopos-Caja-30-Unidades</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ef-humedo-gota-150</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-brillo-gota-150</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ext-fuerte-150</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>polvo-desodorante-para-pies-talquera-200g</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>algabo-wipes-desmaq-25</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitizante-gel-500</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>453</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>544</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-lavanda-900</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>vais-limp-pompomes-algodon-900</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-fr-primav-900</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-citrico-900</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>alcohol-en-gel-ultra-70-pocket-70-ml</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>kids-acondicionador-sandia-dulce-350-ml</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-bubble-gum-350-ml</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-melocoton-350-ml</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-sandia-dulce-350-ml</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>algabo-men-cr-afeitar-177</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>660</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-kar-agu-dp-220</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-cocomiel-dp-220</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>algabo-espuma-manz-mag-dp-250</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>talco-desodorante-en-polvo-antibacterial-100g</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-colonia-suave-brisa-200-ml</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>561</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>673</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-colonia-dulces-mimos-200-ml</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>561</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>673</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>vais-repelente-extreme-200</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>740</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-xtreme-prof-100</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>algabo-quita-black-100</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>colonia-ambre-500ml</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>colonia-lavanda-500ml</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>colonia-inglesa-500ml</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>sally-unicornio-colonia-100-ml</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>979</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>baby-wipes-3-x-48-15-off</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>polvo-desodorante-para-pies-talquera-100g</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>polvo-desodorante-para-pies-talquera-100g1</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanit-spray-125</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-toallas-humedas-48-unidades</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-suave-brisa-500</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>vais-perf-calida-prim-dp-500</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ducha-kar-agu-350</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>algabo-gel-ducha-coco-miel-350</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-jabon-liquido-doypack-200-ml</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-detox-ep-300</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-aguac-y-argan-ep-300</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-coco-y-leche-ep-300</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-manz-y-magno-ep-300</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-manz-y-magno-ep-300</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-coco-y-miel-ep-300</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-aguac-y-argan-ep-300</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-detox-ep-300</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>sally-espuma-banio-3d-350</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>2345</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>repuesto-polvo-fecula-250g</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>desodorante-anti-transpirante-para-pies-aerosol-153ml</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-peinar-argan-300</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-peinar-kerat-300</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>algabo-crema-peinar-rizado-300</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>desodorante-antitranspirante-para-calzado-aerosol-153-ml</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>algabo-foot-antibacterial-200</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitizante-gel-750</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>740</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-sandia-dulce-750-ml</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>605</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>kids-acondicionador-sandia-dulce-750-ml</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>605</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-bubble-gum-750-ml</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>605</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>kids-acondicionador-piojos-500-ml</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>803</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>kids-shampoo-piojos-500-ml</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>803</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-citrus-4</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>vais-limp-pompones-algodon-4</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-fr-primav-4</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>vais-limpiador-lavanda-4</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>trolls-branch-shampoo-750-ml</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>trolls-poppi-acondicionador-750-ml</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>trolls-poppi-shampoo-750-ml</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-floral-ep-900</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-greentea-ep-900</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-citrus-ep-900</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>avengers-shampo-surtido-2d-350</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>spiderman-sh-2d-350</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>algabo-wipes-micelares-25</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-green-tea-300</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-citrus-300</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-flower-mix-300</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-floral-rain-300</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-ftos-bosque-300</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-coconut-300</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-cremoso-300</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-manz-y-magn-ep-930</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-aguac-y-argan-ep-930</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>algabo-aco-coco-y-leche-ep-930</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-manz-y-magno-ep-930</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-jabon-con-estuche-90-g</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-aguac-y-argan-ep-930</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-coco-y-miel-ep-930</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitiz-gel-holder-30</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>algabo-baby-jabon-liquido-200-ml</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Baby-Oleo-Calcareo-900-ml</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>905</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>sally-shampoo-y-shower-gel-250</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanitizante-gel-75</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>ultra-sanit-spray-500</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-0-oliva-y-argan-750</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-0-oliva-y-argan-750</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>algabo-sh-0-acai-y-romero-750</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>algabo-ac-0-acai-y-romero-750</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-kar-agu-221</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>algabo-jab-liq-coco-miel-221</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>jabon-liquido-antibacterial-neutro-doy-pack-300ml</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/proveedor/algabo/listos/tiendaNube/algabo.xlsx
+++ b/data/proveedor/algabo/listos/tiendaNube/algabo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
